--- a/data/trans_bre/P0901-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P0901-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>10.55115646412385</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.279567922489299</v>
+        <v>7.279567922489294</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3218574503799529</v>
@@ -649,7 +649,7 @@
         <v>0.8315764422663648</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2813023722947721</v>
+        <v>0.2813023722947718</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.701858438795996</v>
+        <v>1.502916292382139</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.202495239422779</v>
+        <v>8.2312766812239</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.155657329432048</v>
+        <v>7.466878933881424</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.511666896620763</v>
+        <v>2.311728258000902</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08421569795990719</v>
+        <v>0.07487324023152794</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5580119571791228</v>
+        <v>0.5414722547037307</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5027521319389626</v>
+        <v>0.5354639608955252</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.05317246977272507</v>
+        <v>0.07911623511528183</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.13579067764722</v>
+        <v>10.2723313655811</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.81169396041394</v>
+        <v>14.84178077710226</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.76966120754486</v>
+        <v>13.78034742690086</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.96406082220328</v>
+        <v>12.78338468633027</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.656451961791305</v>
+        <v>0.6812588301447835</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.307328585299231</v>
+        <v>1.274647666053065</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.219306067599253</v>
+        <v>1.223130961628537</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5203474288897074</v>
+        <v>0.5765552401934141</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>8.301999738093228</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9.158741110166085</v>
+        <v>9.158741110166089</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7551281397832096</v>
@@ -749,7 +749,7 @@
         <v>0.8480110645652631</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.6187362157443848</v>
+        <v>0.618736215744385</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.786496849971167</v>
+        <v>3.664362639172157</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.850322298344556</v>
+        <v>6.30772882135332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.034143411793758</v>
+        <v>5.161862346074845</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.036000783819403</v>
+        <v>6.088452378646688</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3767158281356942</v>
+        <v>0.3903002027697194</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3998385583072759</v>
+        <v>0.4519988579009379</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4444902112409622</v>
+        <v>0.4546163468491607</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3541093497966938</v>
+        <v>0.3688423224559947</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.088095081305388</v>
+        <v>8.943887618676383</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.19734506402774</v>
+        <v>12.91172686059118</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.76079676525545</v>
+        <v>11.75556194792608</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.45945097726835</v>
+        <v>12.45132811401646</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.235905802035557</v>
+        <v>1.279534775721546</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.272648469535005</v>
+        <v>1.247313155679283</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.367011042195617</v>
+        <v>1.420629254130543</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9734840916558833</v>
+        <v>0.9722502678910914</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>10.34040123327346</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.272308372496961</v>
+        <v>6.272308372496963</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.184858919438775</v>
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.49233195022065</v>
+        <v>4.638314803174561</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.556160928787041</v>
+        <v>2.105755781039741</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.888938851620718</v>
+        <v>7.0259419005839</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.678205779235193</v>
+        <v>3.790623310906211</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6415040490986099</v>
+        <v>0.6781766920313483</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1793851344661482</v>
+        <v>0.1639327884616058</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7570934333044895</v>
+        <v>0.7976500766913484</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3246303240137689</v>
+        <v>0.3359504527208529</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.663269866700885</v>
+        <v>9.800333014900144</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.476419384687794</v>
+        <v>9.111868981402397</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.66159011402784</v>
+        <v>13.84525234419717</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.789428812503312</v>
+        <v>8.825216417112234</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.973355820833744</v>
+        <v>2.06320217517614</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9144956903446961</v>
+        <v>0.8927495858398833</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.196766645493967</v>
+        <v>2.146879613912102</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.131850692407025</v>
+        <v>1.107738672236883</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.843948243358354</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.017337527677951</v>
+        <v>3.017337527677949</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8524276340409511</v>
@@ -949,7 +949,7 @@
         <v>0.3594613146128958</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2713251265721086</v>
+        <v>0.2713251265721085</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8350360254242373</v>
+        <v>1.27840672400802</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1425072965545589</v>
+        <v>0.4754949981702881</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.5780967971843135</v>
+        <v>-0.1555423164845705</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.201266707573772</v>
+        <v>0.2146322722362428</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1015584332982958</v>
+        <v>0.1518390190795149</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0006062408711215161</v>
+        <v>0.01550991164372313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05736022517418589</v>
+        <v>-0.02184992551711126</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.009369646759255399</v>
+        <v>0.01323351268377425</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.043507148762584</v>
+        <v>9.071753987138569</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.673899445928651</v>
+        <v>9.779198487312597</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.468659974468808</v>
+        <v>8.744928587690763</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.793961063946338</v>
+        <v>5.91952462080426</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.095605404186133</v>
+        <v>2.135278880410216</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.144588404235598</v>
+        <v>1.191041838369765</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.009508380702594</v>
+        <v>0.9985372853494817</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.633442813130117</v>
+        <v>0.6189986803396538</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>9.042445925967034</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.020469500326235</v>
+        <v>7.02046950032624</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8294065234362344</v>
@@ -1049,7 +1049,7 @@
         <v>0.8726383372472891</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5131034645044569</v>
+        <v>0.5131034645044574</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.693679351121085</v>
+        <v>5.44239542872819</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.907991613133352</v>
+        <v>6.976697890531371</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.292252874256428</v>
+        <v>7.323429149948321</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.323290037768005</v>
+        <v>5.372513213259889</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5882013388026074</v>
+        <v>0.5669097759807674</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.532105180188933</v>
+        <v>0.5444202048377734</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6614029006416624</v>
+        <v>0.6362247555524522</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3630249567075061</v>
+        <v>0.3716041898111631</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.002205609224385</v>
+        <v>8.82201641382901</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.61750567267678</v>
+        <v>10.67049487241557</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.81417231854244</v>
+        <v>10.93873464351089</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.624182859592199</v>
+        <v>8.608163200385503</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.10046368860974</v>
+        <v>1.083093178162435</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9521397147002452</v>
+        <v>0.9472776273425038</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.136313932736239</v>
+        <v>1.110356980866274</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6746196909562042</v>
+        <v>0.6676080252655046</v>
       </c>
     </row>
     <row r="19">
